--- a/Documentation/Trigger Detection_Test_Cases.xlsx
+++ b/Documentation/Trigger Detection_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hruy1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GITHUB\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE1C8B-8CA7-4754-84D4-52F79A1C904D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581CB1B-9C68-42A7-987D-0E2975EE40ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -125,39 +125,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ‘o_latchcount’ and 'o_countenb' were previously set to '0'. Check if ‘o_latchcount’ and 'o_countenb' are set to 1 when 'i_trigger' is set to 1 for two clock cycles.
+    <t>TRIGGER_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">‘o_latchcount’=not ‘o_latchcount’
+'o_countenb' =not 'o_countenb'
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>set 'i_trigger' to 1 for 2
-clock cycles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_trigger'=1 for 2
-clock cycles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘o_latchcount’=1
-'o_countenb' =1
+    <t xml:space="preserve"> ‘o_latchcount’ and 'o_countenb' shall be toggled when 'i_trigger' is held high for 2 clock cycles of 'i_sclk'
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TRIGGER_TC_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘o_latchcount’ and 'o_countenb' were previously set to '1'. Check if ‘o_latchcount’ and 'o_countenb' are set to 0 when 'i_trigger' is set to 1 for two clock cycles.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘o_latchcount’=0
-'o_countenb' =0
-</t>
+    <t>1.set 'i_trigger' to 1 for two clock cycles of 'i_sclk'
+2.set 'i_trigger' to 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.'i_trigger'=1 for two clock cycles of 'i_sclk'
+2. 'i_trigger' = 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,6 +227,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,7 +515,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -533,7 +525,7 @@
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="36.75" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.9140625" customWidth="1"/>
@@ -630,43 +622,31 @@
     </row>
     <row r="5" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Documentation/Trigger Detection_Test_Cases.xlsx
+++ b/Documentation/Trigger Detection_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GITHUB\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hruy1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581CB1B-9C68-42A7-987D-0E2975EE40ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21421E07-69E5-4912-AC3D-B16733B5052F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>TRIGGER_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>set 'i_reset_n' to 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>TRIGGER_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>set 'i_reset_n' to 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -140,13 +132,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.set 'i_trigger' to 1 for two clock cycles of 'i_sclk'
-2.set 'i_trigger' to 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.'i_trigger'=1 for two clock cycles of 'i_sclk'
-2. 'i_trigger' = 0</t>
+    <t>1.set 'i_reset_n' to 0
+2.Observe 'o_latchcount' and 'o_counterenb'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_reset_n' to 0
+2.Observe 'o_countinit'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_trigger' to 1 for 2
+clock cycles of 'i_sclk'
+2.set 'i_trigger' to 0 for 2
+clock cycles of 'i_sclk'
+3.Observe 'o_latchcount' and 'o_countenb'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.'i_trigger'=1 for 2
+clock cycles of 'i_sclk'
+2.'i_trigger'=0 for 2
+clock cycles of 'i_sclk'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.set 'i_reset_n' to 1
+2.Observe 'o_countinit'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -205,14 +217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -515,7 +524,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -523,7 +532,7 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="36.75" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
@@ -565,88 +574,88 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Documentation/Trigger Detection_Test_Cases.xlsx
+++ b/Documentation/Trigger Detection_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hruy1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21421E07-69E5-4912-AC3D-B16733B5052F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3BA791-A6B7-43A7-9121-F80F469E56C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,12 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘o_latchcount’=not ‘o_latchcount’
-'o_countenb' =not 'o_countenb'
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ‘o_latchcount’ and 'o_countenb' shall be toggled when 'i_trigger' is held high for 2 clock cycles of 'i_sclk'
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,23 +136,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.set 'i_trigger' to 1 for 2
-clock cycles of 'i_sclk'
-2.set 'i_trigger' to 0 for 2
-clock cycles of 'i_sclk'
-3.Observe 'o_latchcount' and 'o_countenb'</t>
+    <t>1.set 'i_reset_n' to 1
+2.Observe 'o_countinit'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.'i_trigger'=1 for 2
 clock cycles of 'i_sclk'
-2.'i_trigger'=0 for 2
-clock cycles of 'i_sclk'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.set 'i_reset_n' to 1
-2.Observe 'o_countinit'</t>
+2.'i_trigger'=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.set 'i_trigger' to 1 for 2
+clock cycles of 'i_sclk'
+2.Observe 'o_latchcount' and 'o_countenb'
+3.set 'i_trigger' to 0
+4.Observe 'o_latchcount' and 'o_countenb'
+5. Repeat the process for 4 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.'o_latchcount'=1 
+   'o_counterenb'=1
+4.'o_latchcount'=0 
+   'o_counterenb'=0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -580,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -600,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -620,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -637,16 +639,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
